--- a/RUDN/Importance/Varible_muatal_in_Eastern Europe.xlsx
+++ b/RUDN/Importance/Varible_muatal_in_Eastern Europe.xlsx
@@ -14,23 +14,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="458">
   <si>
     <t>Mortality rate, adult, male (per 1,000 male adults)</t>
   </si>
   <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
     <t>Population, male (% of total)</t>
   </si>
   <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
     <t>Rural population growth (annual %)</t>
   </si>
   <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Labor force, female (% of total labor force)</t>
   </si>
   <si>
@@ -70,21 +70,21 @@
     <t>Male population 15-19</t>
   </si>
   <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
     <t>Female population 15-19</t>
   </si>
   <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Age population, age 17, male, interpolated</t>
   </si>
   <si>
@@ -136,15 +136,15 @@
     <t>Age population, age 13, male, interpolated</t>
   </si>
   <si>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Male population 55-59</t>
   </si>
   <si>
@@ -160,27 +160,27 @@
     <t>Population ages 65 and above, male</t>
   </si>
   <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
     <t>Female population 35-39</t>
   </si>
   <si>
     <t>Age population, age 21, female, interpolated</t>
   </si>
   <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
     <t>Male population 40-44</t>
   </si>
   <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
     <t>Health expenditure per capita (current US$)</t>
   </si>
   <si>
     <t>Male population 30-34</t>
   </si>
   <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
     <t>Female population 45-49</t>
   </si>
   <si>
@@ -196,15 +196,15 @@
     <t>Age population, age 12, male, interpolated</t>
   </si>
   <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
     <t>Female population 10-14</t>
   </si>
   <si>
     <t>Male population 10-14</t>
   </si>
   <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
     <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
@@ -214,36 +214,36 @@
     <t>Age population, age 22, male, interpolated</t>
   </si>
   <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
     <t>Time required to start a business, female (days)</t>
   </si>
   <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 20-24</t>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
   </si>
   <si>
     <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
     <t>Male population 75-79</t>
   </si>
   <si>
@@ -253,15 +253,15 @@
     <t>Female population 20-24</t>
   </si>
   <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
     <t>Health expenditure per capita, PPP</t>
   </si>
   <si>
     <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
   </si>
   <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
     <t>Male population 35-39</t>
   </si>
   <si>
@@ -292,15 +292,15 @@
     <t>Population ages 15-64, total</t>
   </si>
   <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
     <t>Population ages 60-64, male (% of male population)</t>
   </si>
   <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
     <t>Population ages 15-64, female</t>
   </si>
   <si>
@@ -313,108 +313,108 @@
     <t>Population, female</t>
   </si>
   <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
     <t>Age population, age 11, male, interpolated</t>
   </si>
   <si>
-    <t>Female population 65-69</t>
+    <t>Population ages 65 and above (% of total)</t>
   </si>
   <si>
     <t>Female population 50-54</t>
   </si>
   <si>
-    <t>Population ages 65 and above (% of total)</t>
+    <t>Start-up procedures to register a business, female (number)</t>
   </si>
   <si>
     <t>Female population 70-74</t>
   </si>
   <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
+    <t>Population, male</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
     <t>Start-up procedures to register a business, male (number)</t>
   </si>
   <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>Population, male</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Population ages 20-24, female (% of female population)</t>
   </si>
   <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
     <t>Population ages 65 and above, female</t>
   </si>
   <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
     <t>Age dependency ratio, old</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+    <t>Mortality rate, under-5 (per 1,000)</t>
   </si>
   <si>
     <t>Age population, age 10, female, interpolated</t>
   </si>
   <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
     <t>Age population, age 10, male, interpolated</t>
   </si>
   <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
     <t>Age population, age 23, male, interpolated</t>
   </si>
   <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>Age population, age 06, male, interpolated</t>
   </si>
   <si>
     <t>Urban population growth (annual %)</t>
   </si>
   <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
     <t>Population ages 75-79, male (% of male population)</t>
   </si>
   <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>Country_code</t>
   </si>
   <si>
@@ -433,33 +433,33 @@
     <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
     <t>Population ages 15-64, female (% of total)</t>
   </si>
   <si>
@@ -475,24 +475,24 @@
     <t>Urban population</t>
   </si>
   <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
     <t>GNI, Atlas method (current US$)</t>
   </si>
   <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
+    <t>Trade (% of GDP)</t>
   </si>
   <si>
     <t>Rural population</t>
   </si>
   <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
     <t>GDP (current US$)</t>
   </si>
   <si>
@@ -520,39 +520,39 @@
     <t>Net ODA provided, total (current US$)</t>
   </si>
   <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
     <t>Net ODA provided, total (constant 2015 US$)</t>
   </si>
   <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
     <t>Population ages 75-79, female (% of female population)</t>
   </si>
   <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
     <t>Children out of school, primary, female</t>
   </si>
   <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
   </si>
   <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
     <t>CO2 emissions (kt)</t>
   </si>
   <si>
@@ -562,10 +562,13 @@
     <t>Population ages 50-54, female (% of female population)</t>
   </si>
   <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
     <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Children orphaned by HIV/AIDS</t>
+    <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
     <t>Population ages 30-34, female (% of female population)</t>
@@ -574,9 +577,6 @@
     <t>Population ages 15-19, female (% of female population)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
     <t>Population ages 25-29, male (% of male population)</t>
   </si>
   <si>
@@ -595,12 +595,12 @@
     <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
   </si>
   <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
     <t>Population ages 80 and older, female (% of female population)</t>
   </si>
   <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
     <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
@@ -619,27 +619,30 @@
     <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
   </si>
   <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
     <t>PPP conversion factor, GDP (LCU per international $)</t>
   </si>
   <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
     <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
     <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
   </si>
   <si>
+    <t>Net ODA provided to the least developed countries (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
     <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
   </si>
   <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
     <t>Inflation, consumer prices (annual %)</t>
   </si>
   <si>
@@ -649,9 +652,6 @@
     <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
   </si>
   <si>
-    <t>Net ODA provided to the least developed countries (current US$)</t>
-  </si>
-  <si>
     <t>Population ages 70-74, male (% of male population)</t>
   </si>
   <si>
@@ -664,34 +664,55 @@
     <t>Population ages 65-69, male (% of male population)</t>
   </si>
   <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Self-employed, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Self-employed, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
     <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
   </si>
   <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
   </si>
   <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Self-employed, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
   </si>
   <si>
     <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
@@ -700,84 +721,69 @@
     <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
   </si>
   <si>
+    <t>Self-employed, total (% of total employment)</t>
+  </si>
+  <si>
     <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
   </si>
   <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
     <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
   </si>
   <si>
     <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
   </si>
   <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
     <t>Children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Self-employed, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Self-employed, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
   </si>
   <si>
     <t>Government expenditure per student, secondary (% of GDP per capita)</t>
   </si>
   <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
     <t>Population ages 70-74, female (% of female population)</t>
   </si>
   <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
     <t>Poverty headcount ratio at national poverty line (% of population)</t>
   </si>
   <si>
@@ -787,126 +793,120 @@
     <t>Government expenditure per student, primary (% of GDP per capita)</t>
   </si>
   <si>
-    <t>Unemployment, total (% of total labor force)</t>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
   </si>
   <si>
     <t>Immunization, measles (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
     <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
     <t>Gross graduation ratio, tertiary, male (%)</t>
   </si>
   <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
     <t>Gross graduation ratio, tertiary, female (%)</t>
   </si>
   <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) newly infected with HIV</t>
   </si>
   <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
     <t>Population ages 40-44, female (% of female population)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
     <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
   </si>
   <si>
     <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
   </si>
   <si>
     <t>Immunization, HepB3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
     <t>Forest area (% of land area)</t>
   </si>
   <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Prevalence of overweight, male (% of male adults)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>Access to anti-retroviral drugs, female (%)</t>
   </si>
   <si>
@@ -916,220 +916,229 @@
     <t>People using safely managed sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
     <t>Net official development assistance received (current US$)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
   </si>
   <si>
     <t>Years</t>
   </si>
   <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
-    <t>Poverty gap at national poverty lines (%)</t>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
   </si>
   <si>
     <t>Prevalence of obesity, male (% of male population ages 18+)</t>
   </si>
   <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
     <t>Prevalence of obesity, female (% of female population ages 18+)</t>
   </si>
   <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
     <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
   </si>
   <si>
     <t>Births attended by skilled health staff (% of total)</t>
   </si>
   <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
   </si>
   <si>
     <t>Health expenditure, public (% of government expenditure)</t>
   </si>
   <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Physicians (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
   </si>
   <si>
     <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+    <t>Employers, female (% of female employment)</t>
   </si>
   <si>
     <t>People using basic sanitation services (% of population)</t>
   </si>
   <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
     <t>Survival to age 65, female (% of cohort)</t>
   </si>
   <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
     <t>Health expenditure, public (% of GDP)</t>
   </si>
   <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
   </si>
   <si>
     <t>CO2 emissions (metric tons per capita)</t>
   </si>
   <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
   </si>
   <si>
     <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
   </si>
   <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
   </si>
   <si>
     <t>Tuberculosis case detection rate (all forms)</t>
   </si>
   <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
+    <t>Health expenditure, public (% of total health expenditure)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
   </si>
   <si>
+    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
+  </si>
+  <si>
     <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
   </si>
   <si>
-    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
+    <t>Health expenditure, private (% of total health expenditure)</t>
   </si>
   <si>
     <t>External resources for health (% of total expenditure on health)</t>
@@ -1138,61 +1147,61 @@
     <t>Hospital beds (per 1,000 people)</t>
   </si>
   <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
   </si>
   <si>
     <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>GINI index (World Bank estimate)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
   </si>
   <si>
     <t>Health expenditure, total (% of GDP)</t>
   </si>
   <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
-  </si>
-  <si>
     <t>Health expenditure, private (% of GDP)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
     <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
@@ -1201,7 +1210,61 @@
     <t>Own-account workers, female (% of females employed)</t>
   </si>
   <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Age at first marriage, male</t>
+  </si>
+  <si>
+    <t>Age at first marriage, female</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Income share held by lowest 20%</t>
+  </si>
+  <si>
+    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
   </si>
   <si>
     <t>Public spending on education, total (% of GDP)</t>
@@ -1210,78 +1273,15 @@
     <t>Government expenditure on education, total (% of GDP)</t>
   </si>
   <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, male</t>
-  </si>
-  <si>
-    <t>Age at first marriage, female</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
   </si>
   <si>
     <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
   </si>
   <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
-  </si>
-  <si>
-    <t>Income share held by lowest 20%</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
     <t>Vulnerable employment, female (% of female employment)</t>
   </si>
   <si>
@@ -1300,19 +1300,31 @@
     <t>School enrollment, secondary, male (% net)</t>
   </si>
   <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
     <t>Contributing family workers, male (% of male employment)</t>
   </si>
   <si>
-    <t>School enrollment, secondary, female (% net)</t>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
     <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
   </si>
   <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
   </si>
   <si>
     <t>People practicing open defecation, rural (% of rural population)</t>
@@ -1324,12 +1336,24 @@
     <t>People practicing open defecation, urban (% of urban population)</t>
   </si>
   <si>
-    <t>People using basic drinking water services (% of population)</t>
+    <t>Employment in services, male (% of male employment)</t>
   </si>
   <si>
     <t>People using basic drinking water services, urban (% of urban population)</t>
   </si>
   <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
     <t>Contributing family workers, female (% of female employment)</t>
   </si>
   <si>
@@ -1339,40 +1363,25 @@
     <t>Wage and salaried workers, male (% of male employment)</t>
   </si>
   <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+    <t>Proportion of women in ministerial level positions (%)</t>
   </si>
   <si>
     <t>Primary completion rate, total (% of relevant age group)</t>
   </si>
   <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
     <t>Improved water source, rural (% of rural population with access)</t>
   </si>
   <si>
     <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
   </si>
   <si>
     <t>Reion_sub_code</t>
@@ -1736,7 +1745,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B456"/>
+  <dimension ref="A1:B459"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1760,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.039484043703168</v>
+        <v>1.038630748919209</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1768,7 +1777,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.039484043703168</v>
+        <v>1.03732630560793</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1776,7 +1785,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.039024893055178</v>
+        <v>1.03732630560793</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1784,7 +1793,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.038630748919209</v>
+        <v>1.037164774007559</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1792,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.028213054359547</v>
+        <v>1.029329125788119</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1800,7 +1809,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.022464544874243</v>
+        <v>1.023580616302814</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1808,7 +1817,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.009509107044714</v>
+        <v>1.006532916568524</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1824,7 +1833,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.987930948323998</v>
+        <v>0.9859468213398705</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1832,7 +1841,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9777203636379652</v>
+        <v>0.979803696971298</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1840,7 +1849,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9765496970949719</v>
+        <v>0.9717900870370308</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1856,7 +1865,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9300238184772813</v>
+        <v>0.928238104191567</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1864,7 +1873,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9296528437539371</v>
+        <v>0.9278671294682226</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1872,7 +1881,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9228575516154227</v>
+        <v>0.9238496151074864</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1888,7 +1897,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9174534236113949</v>
+        <v>0.9156677093256806</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1896,7 +1905,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9152179247432661</v>
+        <v>0.9146910187968149</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1904,7 +1913,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9134155085927331</v>
+        <v>0.9134322104575516</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1912,7 +1921,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9111002837784485</v>
+        <v>0.9102074266355915</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1920,7 +1929,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.907805798279619</v>
+        <v>0.9073767824519239</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1928,7 +1937,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9073767824519239</v>
+        <v>0.9060200839939048</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1936,7 +1945,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9057068348488757</v>
+        <v>0.9039211205631614</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1944,7 +1953,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9021684170104636</v>
+        <v>0.9003827027247493</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1960,7 +1969,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.8931978617834706</v>
+        <v>0.8914121474977563</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1968,7 +1977,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.8868049939513776</v>
+        <v>0.8850192796656631</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1976,7 +1985,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8843244820636984</v>
+        <v>0.8847947325339491</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1984,7 +1993,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.8837057498640215</v>
+        <v>0.8819200355783072</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1992,7 +2001,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.8819625576313206</v>
+        <v>0.8801768433456063</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2000,7 +2009,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.8790924869162549</v>
+        <v>0.8773067726305406</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2016,7 +2025,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.8552551666557791</v>
+        <v>0.8534694523700648</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2024,7 +2033,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.8542605092599678</v>
+        <v>0.8524747949742537</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2040,7 +2049,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.8494655935481079</v>
+        <v>0.8476798792623936</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2048,7 +2057,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.8491239191808984</v>
+        <v>0.8473382048951841</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2064,7 +2073,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.8307249299285653</v>
+        <v>0.8289392156428512</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2072,7 +2081,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.8284087079840492</v>
+        <v>0.8204803949826223</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2080,7 +2089,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.8222661092683368</v>
+        <v>0.818668864109064</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2088,7 +2097,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.818668864109064</v>
+        <v>0.8183020327381936</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2096,7 +2105,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.8149655714692461</v>
+        <v>0.8131798571835316</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2104,7 +2113,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.8133799388260656</v>
+        <v>0.8115942245403516</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2120,7 +2129,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.8069479767595573</v>
+        <v>0.805162262473843</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2128,7 +2137,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.8064557246584956</v>
+        <v>0.8046700103727815</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2136,7 +2145,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.8032460134695016</v>
+        <v>0.8025286783586512</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2144,7 +2153,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.8030996497158669</v>
+        <v>0.8014602991837874</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2152,7 +2161,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.8006154130525287</v>
+        <v>0.8013139354301524</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2160,7 +2169,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.8001135528946268</v>
+        <v>0.7983278386089125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2168,7 +2177,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.7940479048611744</v>
+        <v>0.7954875974863591</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2176,7 +2185,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.7936607022333646</v>
+        <v>0.79462788044115</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2184,7 +2193,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.7919846483754784</v>
+        <v>0.7918749879476501</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2200,7 +2209,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.7879605943260395</v>
+        <v>0.7887722826377281</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2208,7 +2217,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.7870707664123686</v>
+        <v>0.7852850521266543</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2224,7 +2233,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.7837060631445207</v>
+        <v>0.7819203488588065</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2232,7 +2241,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.7792371770121365</v>
+        <v>0.7798062628276869</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2240,7 +2249,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.7771114334410367</v>
+        <v>0.777451462726422</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2248,7 +2257,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.7762872429023226</v>
+        <v>0.7753257191553224</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2256,7 +2265,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.7690504221325396</v>
+        <v>0.7712913438048523</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2264,7 +2273,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.7669685414445664</v>
+        <v>0.7651828271588521</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2280,7 +2289,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.7587492530703441</v>
+        <v>0.7581287721174983</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2288,7 +2297,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.7585110226182941</v>
+        <v>0.757220803860013</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2296,7 +2305,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.7581287721174983</v>
+        <v>0.75672530833258</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2304,7 +2313,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.7554533489427491</v>
+        <v>0.7540611697410209</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2312,7 +2321,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.7546728499051873</v>
+        <v>0.7540611697410209</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2320,7 +2329,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.7540611697410209</v>
+        <v>0.7528166060920278</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2328,7 +2337,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.7540611697410209</v>
+        <v>0.7523212663841727</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2336,7 +2345,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.7533116526104873</v>
+        <v>0.751525938324773</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2344,7 +2353,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.7528166060920278</v>
+        <v>0.750776406765469</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2352,7 +2361,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.752562121051183</v>
+        <v>0.7498763353829556</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2360,7 +2369,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.751181082253914</v>
+        <v>0.7493953679681997</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2384,7 +2393,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.7443616177014269</v>
+        <v>0.7447333872960029</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2392,7 +2401,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.7443616177014269</v>
+        <v>0.7436170249925489</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2400,7 +2409,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.7438405301531454</v>
+        <v>0.7436170249925489</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2408,7 +2417,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.7427010990344611</v>
+        <v>0.7409153847487466</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2416,7 +2425,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.7410059089542176</v>
+        <v>0.7392201946685033</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2424,7 +2433,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.7407970234833086</v>
+        <v>0.7390113091975943</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2432,7 +2441,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.7407811258492845</v>
+        <v>0.7389954115635702</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2440,7 +2449,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.7389406943149621</v>
+        <v>0.7371549800292476</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2448,7 +2457,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.7386485163113805</v>
+        <v>0.7368628020256662</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2456,7 +2465,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.7373377620796888</v>
+        <v>0.7355520477939743</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2464,7 +2473,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.7352141834222872</v>
+        <v>0.7334284691365731</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2472,7 +2481,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.7280889049539747</v>
+        <v>0.7263031906682607</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2480,7 +2489,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.7269794336475783</v>
+        <v>0.7251937193618641</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2488,7 +2497,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.7259820136239084</v>
+        <v>0.7241125404732818</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2496,7 +2505,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.7258982547589963</v>
+        <v>0.7231558325284786</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2504,7 +2513,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.7249415468141931</v>
+        <v>0.7230630575799522</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2512,7 +2521,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.7245739233044268</v>
+        <v>0.7227882090187125</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2520,7 +2529,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.7245100535278126</v>
+        <v>0.7227243392420986</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2528,7 +2537,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.7239263818470947</v>
+        <v>0.7221406675613804</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2536,7 +2545,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.7222957877171485</v>
+        <v>0.7205100734314343</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2544,7 +2553,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.7177690381202826</v>
+        <v>0.7166005669332975</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2552,7 +2561,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.7166005669332975</v>
+        <v>0.7159833238345681</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2560,7 +2569,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.7163042685198351</v>
+        <v>0.7152450716219989</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2568,7 +2577,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.7142377988630808</v>
+        <v>0.7145185542341206</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2576,7 +2585,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.7051299111827438</v>
+        <v>0.709705595363411</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2584,7 +2593,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.7031740047623436</v>
+        <v>0.7051299111827438</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2592,7 +2601,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.702507894919159</v>
+        <v>0.7029371531609172</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2600,7 +2609,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.7021567082996392</v>
+        <v>0.7003709940139247</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2608,7 +2617,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.7010851116899006</v>
+        <v>0.7002318926601068</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2616,7 +2625,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.700612731683268</v>
+        <v>0.6992993974041866</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2624,7 +2633,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.6997619678480769</v>
+        <v>0.6988270173975537</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2632,7 +2641,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.6997329880530159</v>
+        <v>0.6979472737673016</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2640,7 +2649,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.6966234342790136</v>
+        <v>0.6948377199932994</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2648,7 +2657,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.6951305935346295</v>
+        <v>0.693344879248915</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2656,7 +2665,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.6923592203891247</v>
+        <v>0.6905735061034104</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2664,7 +2673,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.6900425591885284</v>
+        <v>0.6893127182604037</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2672,7 +2681,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.689781524141704</v>
+        <v>0.6882568449028139</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2680,7 +2689,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.6887174801651659</v>
+        <v>0.68799580985599</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2688,7 +2697,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.6868207566337401</v>
+        <v>0.6874959747937619</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2696,7 +2705,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.6820033115428337</v>
+        <v>0.6871251397506231</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2712,7 +2721,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.6762836591281229</v>
+        <v>0.6802175972571192</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2720,7 +2729,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.6753045274532892</v>
+        <v>0.6768677431571297</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2728,7 +2737,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.6717156449246739</v>
+        <v>0.6750526507068471</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2736,7 +2745,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.6701786658661719</v>
+        <v>0.6703442241218625</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2744,7 +2753,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.6697816224193875</v>
+        <v>0.6683929515804579</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2752,7 +2761,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.6675237951973156</v>
+        <v>0.6683354835090043</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2760,7 +2769,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.6652371939620609</v>
+        <v>0.6679959081336733</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2776,7 +2785,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.6543494027070438</v>
+        <v>0.6544856365430012</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2784,7 +2793,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.6497796237379054</v>
+        <v>0.6525636884213295</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2792,7 +2801,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.6480225133961874</v>
+        <v>0.6508956951664771</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2800,7 +2809,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.647829468116524</v>
+        <v>0.6460437538308097</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2808,7 +2817,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.6418589326343724</v>
+        <v>0.6455006292244589</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2816,7 +2825,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.6326677146437638</v>
+        <v>0.6318143145686352</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2824,7 +2833,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.6297724437626941</v>
+        <v>0.6279867294769799</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2832,7 +2841,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.626822991221365</v>
+        <v>0.6250372769356507</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2840,7 +2849,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.6265549885711905</v>
+        <v>0.624769274285476</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2848,7 +2857,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.625673368943551</v>
+        <v>0.6238876546578367</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2856,7 +2865,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.6240838318940511</v>
+        <v>0.623677987738207</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2864,7 +2873,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.623861878137665</v>
+        <v>0.6216698642764189</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2872,7 +2881,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.6234555785621334</v>
+        <v>0.6215626387535835</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2880,7 +2889,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.623348353039298</v>
+        <v>0.6206443609173311</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2888,7 +2897,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.6220839456599081</v>
+        <v>0.6202982313741938</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2896,7 +2905,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.6206443609173311</v>
+        <v>0.6169701922678785</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2904,7 +2913,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.618755906553593</v>
+        <v>0.6169326338846404</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2912,7 +2921,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.6187183481703546</v>
+        <v>0.616907236179508</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2920,7 +2929,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.6186929504652225</v>
+        <v>0.6146912142341801</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2928,7 +2937,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.6164769285198943</v>
+        <v>0.6100211421975392</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2936,7 +2945,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.608508068370949</v>
+        <v>0.6079679375458915</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2944,7 +2953,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.603386455153895</v>
+        <v>0.6016007408681805</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2952,7 +2961,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.6025657895768175</v>
+        <v>0.600780075291103</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2960,7 +2969,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.5997992343072038</v>
+        <v>0.5980135200214893</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2968,7 +2977,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.5971106369707402</v>
+        <v>0.5953249226850261</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2976,7 +2985,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.5961368365598096</v>
+        <v>0.594895583592721</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2984,7 +2993,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.59486347912507</v>
+        <v>0.5943511222740951</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2992,7 +3001,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.594615823338293</v>
+        <v>0.5940892806743261</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3000,7 +3009,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.5924058857905234</v>
+        <v>0.5930777648393559</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3008,7 +3017,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.5921848664046045</v>
+        <v>0.5913266633317957</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3016,7 +3025,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.5913266633317957</v>
+        <v>0.5903991521188903</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3032,7 +3041,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.5763464429082683</v>
+        <v>0.5819421793952637</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3048,7 +3057,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.5697410830241467</v>
+        <v>0.5675089401670044</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3056,7 +3065,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.5649195858042058</v>
+        <v>0.5661663683009883</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3088,7 +3097,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.5491864602979759</v>
+        <v>0.545217451557503</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3096,7 +3105,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.5406621713728081</v>
+        <v>0.5398994100949712</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3104,7 +3113,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.5398994100949712</v>
+        <v>0.5367375700151713</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3112,7 +3121,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.5292248770311279</v>
+        <v>0.5336891627454134</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3120,7 +3129,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.5257259503975096</v>
+        <v>0.5215127713316874</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3128,7 +3137,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.5220364412101959</v>
+        <v>0.5208714783540871</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3136,7 +3145,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.5208991164865648</v>
+        <v>0.5178360335236207</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3144,7 +3153,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.5176130858628123</v>
+        <v>0.515328744099687</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3152,7 +3161,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.5150407256665077</v>
+        <v>0.5119853270787189</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3160,7 +3169,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.5095426163043362</v>
+        <v>0.5066118499807128</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3168,7 +3177,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.5015843732567129</v>
+        <v>0.4965952943820251</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3176,7 +3185,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.4992211686636059</v>
+        <v>0.4951551233553733</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3184,7 +3193,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.4940116397556602</v>
+        <v>0.4942685589037414</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3192,7 +3201,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.4928887631129237</v>
+        <v>0.4923927313668921</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3200,7 +3209,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.4880312625413725</v>
+        <v>0.4896546391647494</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3208,7 +3217,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.4847470623350953</v>
+        <v>0.4873962934955107</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3216,7 +3225,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.4840351069344149</v>
+        <v>0.4864477426072038</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3224,7 +3233,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.4736997355281174</v>
+        <v>0.4743894941017219</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3232,7 +3241,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.4705688353922537</v>
+        <v>0.4736095479379294</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3240,7 +3249,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.4690022965635277</v>
+        <v>0.4700989105802234</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3248,7 +3257,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.4622286355524019</v>
+        <v>0.4627538456364357</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3256,7 +3265,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.4567970587710521</v>
+        <v>0.4559130996495433</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3264,7 +3273,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.4543449614521085</v>
+        <v>0.4528781247174145</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3272,7 +3281,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.4534949375969402</v>
+        <v>0.4494149402133716</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3280,7 +3289,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.4422815728800336</v>
+        <v>0.4457399371554365</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3288,7 +3297,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.4417808182434126</v>
+        <v>0.4442980883266765</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3296,7 +3305,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.4379507256769481</v>
+        <v>0.4385361429152415</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3304,7 +3313,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.4370261078114566</v>
+        <v>0.4349745352007579</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3312,7 +3321,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.4334876107196317</v>
+        <v>0.4329915789736001</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3320,7 +3329,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.4195990662037481</v>
+        <v>0.4188774447445769</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3328,7 +3337,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.4140322697512588</v>
+        <v>0.4110254842950947</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3336,7 +3345,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.4094977264914406</v>
+        <v>0.4092900852954271</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3344,7 +3353,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.4039500771625137</v>
+        <v>0.4051405533529902</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3352,7 +3361,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.4010809063498146</v>
+        <v>0.4008732651538014</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3360,7 +3369,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.3994058269078919</v>
+        <v>0.4001353001850276</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3368,7 +3377,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.397247686806343</v>
+        <v>0.3994058269078919</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3376,7 +3385,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.3951342881382653</v>
+        <v>0.3962503595668367</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3384,7 +3393,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.3945543511897449</v>
+        <v>0.3943467099937314</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3392,7 +3401,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.3861407651778463</v>
+        <v>0.3872230515812198</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3408,7 +3417,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.3845249914559505</v>
+        <v>0.3859941473001065</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3416,7 +3425,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.3841712148391694</v>
+        <v>0.3859331239818329</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3424,7 +3433,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.3826015094120325</v>
+        <v>0.3838059550989099</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3432,7 +3441,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.3818277863918194</v>
+        <v>0.3826015094120325</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3440,7 +3449,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.3802549130107209</v>
+        <v>0.3816201451958059</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3448,7 +3457,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.3792553106808443</v>
+        <v>0.3798133463951303</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3456,7 +3465,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.3789935181461466</v>
+        <v>0.3787858769501331</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3464,7 +3473,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.376164002380915</v>
+        <v>0.3759563611849013</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3472,7 +3481,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.3725335729743109</v>
+        <v>0.3697954302690629</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3480,7 +3489,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.3662218182762054</v>
+        <v>0.3652338173523517</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3488,7 +3497,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.3658068044139009</v>
+        <v>0.3651604490709801</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3496,7 +3505,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.3657625920647352</v>
+        <v>0.363608813436862</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3504,7 +3513,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.3653680902669936</v>
+        <v>0.3631189464223017</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3512,7 +3521,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.3651696376250619</v>
+        <v>0.3618052483911081</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3520,7 +3529,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.3649149398013314</v>
+        <v>0.3612127957810081</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3528,7 +3537,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.3630914296824193</v>
+        <v>0.3608102287405046</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3536,7 +3545,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.3622797413707315</v>
+        <v>0.3608102287405046</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3544,7 +3553,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.3599590858518502</v>
+        <v>0.3603294778138093</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3552,7 +3561,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.3596656951477377</v>
+        <v>0.3603034502497784</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3560,7 +3569,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.3582353933734164</v>
+        <v>0.3579657303701229</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3568,7 +3577,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.358170467265899</v>
+        <v>0.3557399454424048</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3576,7 +3585,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.3577067113811814</v>
+        <v>0.353837496662037</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3584,7 +3593,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.3559475866384181</v>
+        <v>0.3530095699773812</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3592,7 +3601,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.3552320416603971</v>
+        <v>0.351367068822553</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3600,7 +3609,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.3551006307826736</v>
+        <v>0.3499412229739152</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3608,7 +3617,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.3551006307826736</v>
+        <v>0.3469464741233228</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3616,7 +3625,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.3550794984839922</v>
+        <v>0.3430911626041855</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3624,7 +3633,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.3541383094860131</v>
+        <v>0.3428577728848083</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3632,7 +3641,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.353837496662037</v>
+        <v>0.3420633027122986</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3640,7 +3649,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.350459111323675</v>
+        <v>0.3418821467948241</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3648,7 +3657,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.3492544097871018</v>
+        <v>0.3399564000134427</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3656,7 +3665,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.3489530153761873</v>
+        <v>0.3399564000134427</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3664,7 +3673,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.3440566581940263</v>
+        <v>0.339373339390983</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3672,7 +3681,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.340096343238987</v>
+        <v>0.334566001457351</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3680,7 +3689,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.3394359596884005</v>
+        <v>0.3340777712185483</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3688,7 +3697,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.3378703910034198</v>
+        <v>0.3329478045913206</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3696,7 +3705,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.33713712321978</v>
+        <v>0.3317884536413851</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3704,7 +3713,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.3331416904519657</v>
+        <v>0.3317884536413851</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3712,7 +3721,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.3317884536413851</v>
+        <v>0.3289066564296244</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3720,7 +3729,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.3317884536413851</v>
+        <v>0.3278473556268489</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3728,7 +3737,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.3283209908768532</v>
+        <v>0.3274155382313697</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3736,7 +3745,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.3278701873690992</v>
+        <v>0.3266692160971743</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3744,7 +3753,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.3272579131144426</v>
+        <v>0.3263912725839946</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3752,7 +3761,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.3249031773458992</v>
+        <v>0.3257217923679996</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3760,7 +3769,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.3242336971299042</v>
+        <v>0.3255501328730879</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3768,7 +3777,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.3239347687195095</v>
+        <v>0.3254228639576044</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3776,7 +3785,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.3235619814351778</v>
+        <v>0.3235846767177051</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3784,7 +3793,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.3208112498234716</v>
+        <v>0.3220738861970824</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3792,7 +3801,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.3203068397587208</v>
+        <v>0.3215688883112873</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3800,7 +3809,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.3198812452749502</v>
+        <v>0.3207130022237066</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3808,7 +3817,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.318592697835097</v>
+        <v>0.3193159523373885</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3816,7 +3825,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.3179649356967333</v>
+        <v>0.3180955309892359</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3824,7 +3833,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.3147287113875867</v>
+        <v>0.3162168066256821</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3832,7 +3841,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.3144467489484786</v>
+        <v>0.3159348441865739</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3840,7 +3849,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.3087770052356069</v>
+        <v>0.3087639027043063</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3848,7 +3857,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.3072758074662107</v>
+        <v>0.3065442664909295</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3856,7 +3865,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.3030898160167133</v>
+        <v>0.3045779112548086</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3864,7 +3873,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.2993139477895237</v>
+        <v>0.3002391722743543</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3872,7 +3881,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.2987510770362589</v>
+        <v>0.2989832599588356</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3880,7 +3889,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.2983304956079773</v>
+        <v>0.2979998077772896</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3888,7 +3897,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.2966804868664121</v>
+        <v>0.2945438417278234</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3896,7 +3905,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.2945438417278234</v>
+        <v>0.2926653393340528</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3904,7 +3913,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.289870952348489</v>
+        <v>0.2926653393340528</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3912,7 +3921,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.289870952348489</v>
+        <v>0.2883103386315482</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3920,7 +3929,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.2876223453688742</v>
+        <v>0.2843154670619956</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3928,7 +3937,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.2876223453688742</v>
+        <v>0.2843154670619956</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3936,7 +3945,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.2873312785292463</v>
+        <v>0.2814177753051246</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3944,7 +3953,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.2821691607369945</v>
+        <v>0.2813767983374893</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3952,7 +3961,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.2806737276860767</v>
+        <v>0.2770096779022282</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3960,7 +3969,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.2755215826641328</v>
+        <v>0.2763481389308886</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3968,7 +3977,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.2748600436927933</v>
+        <v>0.2744960818948923</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3976,7 +3985,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.2728172052160156</v>
+        <v>0.272815410476305</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3984,7 +3993,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.2713273152382096</v>
+        <v>0.2693264889946052</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3992,7 +4001,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.2674972316995148</v>
+        <v>0.2688079503236644</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4000,7 +4009,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.2663505444093002</v>
+        <v>0.2679415369846425</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4008,7 +4017,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.2648882452796535</v>
+        <v>0.2678386396473955</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4016,7 +4025,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.2632335807574289</v>
+        <v>0.2674972316995148</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4024,7 +4033,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.2628555693712833</v>
+        <v>0.2646806040836402</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4032,7 +4041,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.2628001947406142</v>
+        <v>0.2635400978263964</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4040,7 +4049,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.2619891560322614</v>
+        <v>0.2591410584293588</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4048,7 +4057,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.255978496733515</v>
+        <v>0.2505673737792782</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4056,7 +4065,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.2515135612128312</v>
+        <v>0.2450387578941084</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4064,7 +4073,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.2446419324972826</v>
+        <v>0.24380319787964</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4072,7 +4081,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.244133416930177</v>
+        <v>0.2426417131816438</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4080,7 +4089,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.2429353132086955</v>
+        <v>0.2417461987258611</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4088,7 +4097,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.2417589732565695</v>
+        <v>0.2408611384310833</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4096,7 +4105,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.2404473855835159</v>
+        <v>0.239563426462007</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4104,7 +4113,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.2378073488232464</v>
+        <v>0.2356965067434449</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4112,7 +4121,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.2359041479394581</v>
+        <v>0.228428423456702</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4120,7 +4129,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.2342037564475927</v>
+        <v>0.223655181546079</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4128,7 +4137,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.2199487197667367</v>
+        <v>0.2193235660425508</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4136,7 +4145,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.2153600792159074</v>
+        <v>0.2151674268296895</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4144,7 +4153,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.2119356752473063</v>
+        <v>0.2131261514377827</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4152,7 +4161,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.2095572781010691</v>
+        <v>0.2069329162622899</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4184,7 +4193,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.2069329162622899</v>
+        <v>0.2055316611728057</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4192,7 +4201,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.2047917425894872</v>
+        <v>0.2055283541974557</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4200,7 +4209,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.2013716124703193</v>
+        <v>0.1955441703366978</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4208,7 +4217,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.1969671967878257</v>
+        <v>0.1918240733422505</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4216,7 +4225,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.1893439146120919</v>
+        <v>0.1918240733422505</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4224,7 +4233,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.1893439146120919</v>
+        <v>0.189083062991845</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4240,7 +4249,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.1844406515995545</v>
+        <v>0.1865271327670848</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4248,7 +4257,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.1820517032891504</v>
+        <v>0.1814860151297699</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4256,7 +4265,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.1816378445619082</v>
+        <v>0.1780716826916076</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4264,7 +4273,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.1764520449113332</v>
+        <v>0.1764017088537237</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4304,7 +4313,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.1746310619468237</v>
+        <v>0.1737471028253148</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4312,7 +4321,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.1738048851554133</v>
+        <v>0.173416686397649</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4320,7 +4329,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.173394287481641</v>
+        <v>0.1730158840283447</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4328,7 +4337,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.1715430513055121</v>
+        <v>0.1706605081319108</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4336,7 +4345,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.1712813818120995</v>
+        <v>0.1703500617406684</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4344,7 +4353,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.1703610076043922</v>
+        <v>0.1699728088466279</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4352,7 +4361,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.1703500617406684</v>
+        <v>0.1691821860030489</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4360,7 +4369,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.1674588663991379</v>
+        <v>0.1683051913359088</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4368,7 +4377,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.1623829071814034</v>
+        <v>0.1659555086457802</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4376,7 +4385,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.1607129333435198</v>
+        <v>0.1655832970163853</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4384,7 +4393,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.1580242661242093</v>
+        <v>0.1609753093453115</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4392,7 +4401,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.1557722195567317</v>
+        <v>0.1589356045314552</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4400,7 +4409,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.1534934104928449</v>
+        <v>0.15716271545742</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4408,7 +4417,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.1531896357295452</v>
+        <v>0.1552318603287559</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4416,7 +4425,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.1509579048746958</v>
+        <v>0.152220221120777</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4424,7 +4433,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.1496880110600178</v>
+        <v>0.1514723164559564</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4432,7 +4441,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.1473449555668511</v>
+        <v>0.1509371047692152</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4440,7 +4449,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.1472893692690262</v>
+        <v>0.1507502636786826</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4448,7 +4457,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.1471491369804252</v>
+        <v>0.1485719396314464</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4456,7 +4465,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.1459023432567219</v>
+        <v>0.1456947020607087</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4464,7 +4473,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.1448015442736899</v>
+        <v>0.14508956270687</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4472,7 +4481,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.1446181838666791</v>
+        <v>0.1443882629333439</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4480,7 +4489,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.1445223392253328</v>
+        <v>0.141398865964145</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4488,7 +4497,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.1406002951445537</v>
+        <v>0.1400972404130363</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4504,7 +4513,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.1384254216943317</v>
+        <v>0.1390374684523779</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4512,7 +4521,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.1384128251650021</v>
+        <v>0.1384254216943317</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4520,7 +4529,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.1380823252171592</v>
+        <v>0.1380861379087615</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4528,7 +4537,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.1378069558146546</v>
+        <v>0.1376514697354321</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4536,7 +4545,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.1376752793735467</v>
+        <v>0.1364156935017493</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4544,7 +4553,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.1346117764341321</v>
+        <v>0.136347873977066</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4552,7 +4561,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.1329111596006376</v>
+        <v>0.1340572282552677</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4560,7 +4569,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.1325599061882758</v>
+        <v>0.1339827256663353</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4568,7 +4577,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.1321863726776724</v>
+        <v>0.1337278173126233</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4576,7 +4585,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.1321266864153905</v>
+        <v>0.130788209315275</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4584,7 +4593,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.1318719909482053</v>
+        <v>0.1304291752757689</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4592,7 +4601,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.1309958505112883</v>
+        <v>0.1304291752757689</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4600,7 +4609,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.1307922465671443</v>
+        <v>0.1301652186887652</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4608,7 +4617,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.1304291752757689</v>
+        <v>0.1296249542615873</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4616,7 +4625,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.1304291752757689</v>
+        <v>0.1239904753577918</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4624,7 +4633,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.1298325954576005</v>
+        <v>0.1203706261027393</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4632,7 +4641,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.1240296529419456</v>
+        <v>0.1187589923234704</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4640,7 +4649,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.1226819954348746</v>
+        <v>0.1182880722974862</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4648,7 +4657,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.1209865151750171</v>
+        <v>0.117017826830208</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4656,7 +4665,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.1184957134934994</v>
+        <v>0.1166400792899769</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4664,7 +4673,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.1177351067773256</v>
+        <v>0.1166026003105571</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4672,7 +4681,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.1172254680262212</v>
+        <v>0.1165897029800322</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4680,7 +4689,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.1144276918856486</v>
+        <v>0.1148331071760527</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4688,7 +4697,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.114339198594593</v>
+        <v>0.1139509998368289</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4696,7 +4705,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.114339198594593</v>
+        <v>0.1139509998368289</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4704,7 +4713,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.1114280343622336</v>
+        <v>0.1135614744129148</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4712,7 +4721,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.1104722815504424</v>
+        <v>0.1111699215991717</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4720,7 +4729,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.1104722815504424</v>
+        <v>0.1105440752407247</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4728,7 +4737,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.1078275769334156</v>
+        <v>0.1100840827926786</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4736,7 +4745,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.106417793250237</v>
+        <v>0.1100840827926786</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4744,7 +4753,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.105679231733482</v>
+        <v>0.1093041512493811</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4752,7 +4761,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.1053439311783537</v>
+        <v>0.1078275769334156</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4760,7 +4769,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.1051114280562104</v>
+        <v>0.106417793250237</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4768,7 +4777,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.1038134613836914</v>
+        <v>0.1023533557539713</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4776,7 +4785,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.1031877943039279</v>
+        <v>0.1010179193925929</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4784,7 +4793,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.1012255605886061</v>
+        <v>0.1001128086019318</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4792,7 +4801,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.1007672049523773</v>
+        <v>0.09886936852003281</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4800,7 +4809,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.0997661794844249</v>
+        <v>0.0964411715030784</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4808,7 +4817,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.09904404882329776</v>
+        <v>0.0964411715030784</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -4816,7 +4825,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.09881483426140858</v>
+        <v>0.0964411715030784</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4824,7 +4833,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.09789302622684248</v>
+        <v>0.09578463220179501</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4832,7 +4841,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.09669446009512428</v>
+        <v>0.0946266060657186</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4840,7 +4849,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.0964411715030784</v>
+        <v>0.0937827922227561</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4848,7 +4857,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.0964411715030784</v>
+        <v>0.09194080855460784</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -4856,7 +4865,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.0964411715030784</v>
+        <v>0.09095926077904304</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -4864,7 +4873,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.09501480482348268</v>
+        <v>0.09072550014799474</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -4872,7 +4881,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.09152360565619344</v>
+        <v>0.08831532478678361</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -4880,7 +4889,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.08941555121658551</v>
+        <v>0.08777515266058789</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -4888,7 +4897,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.08628705742249276</v>
+        <v>0.08674100705621668</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4896,7 +4905,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.08379939846906637</v>
+        <v>0.08661503767520995</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -4904,7 +4913,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.08308024827232341</v>
+        <v>0.08466266698424119</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -4912,7 +4921,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.08284256238535082</v>
+        <v>0.08370698665790477</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -4920,7 +4929,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.08238470841030643</v>
+        <v>0.08338810910688443</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4928,7 +4937,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.08238470841030643</v>
+        <v>0.08287260707631017</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -4936,7 +4945,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.08222524892991134</v>
+        <v>0.08223856133812113</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -4944,7 +4953,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.08155116652180294</v>
+        <v>0.0820176077338981</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -4952,7 +4961,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.08092175662077206</v>
+        <v>0.0777725006581933</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -4960,7 +4969,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.08072089641028368</v>
+        <v>0.07714210312854308</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -4968,7 +4977,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.07714210312854308</v>
+        <v>0.07616794670167737</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -4976,7 +4985,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.07616794670167715</v>
+        <v>0.07564805881656667</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -4984,7 +4993,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.07564805881656667</v>
+        <v>0.07423725405527493</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -4992,7 +5001,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.07547440307314024</v>
+        <v>0.07423725405527493</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5000,7 +5009,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.07423725405527493</v>
+        <v>0.07406032155954967</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5008,7 +5017,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.07423725405527493</v>
+        <v>0.07287267256917684</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5016,7 +5025,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.07406032155954967</v>
+        <v>0.07218133872202137</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5024,7 +5033,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.07365851552114022</v>
+        <v>0.07159429859086042</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -5032,7 +5041,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.07358161784288297</v>
+        <v>0.07022542415682054</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5040,7 +5049,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.07218133872202137</v>
+        <v>0.06985099674807205</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -5048,7 +5057,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.07184435222979957</v>
+        <v>0.06756679466509019</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5056,7 +5065,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.07159429859086019</v>
+        <v>0.06756679466509019</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5064,7 +5073,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.07022542415682054</v>
+        <v>0.06524873117142893</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5072,7 +5081,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.06756679466509019</v>
+        <v>0.06460877771504636</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5080,7 +5089,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.06756679466509019</v>
+        <v>0.06287839735188117</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5088,7 +5097,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.06724208665315667</v>
+        <v>0.0624442322198302</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5096,7 +5105,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>0.06487175283360891</v>
+        <v>0.0624442322198302</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -5104,7 +5113,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.06460877771504636</v>
+        <v>0.06099877973167511</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -5112,7 +5121,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.06214631705888118</v>
+        <v>0.06015296157715389</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5120,7 +5129,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.06128222644369341</v>
+        <v>0.05946665294666809</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5128,7 +5137,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.06053735155813333</v>
+        <v>0.05854399607640581</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -5136,7 +5145,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.05835985562648083</v>
+        <v>0.05636650014475308</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -5144,7 +5153,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.05787668490470654</v>
+        <v>0.05588332942297902</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -5152,7 +5161,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.05398674890194854</v>
+        <v>0.05377910770593508</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5160,7 +5169,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.05171714094937729</v>
+        <v>0.0529076171398537</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -5168,7 +5177,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.05097535676416665</v>
+        <v>0.05216583295464305</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -5176,7 +5185,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.05028644314095976</v>
+        <v>0.05049746039639547</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5184,7 +5193,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.0493069842059195</v>
+        <v>0.05007880194494652</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -5192,7 +5201,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.04314255579341597</v>
+        <v>0.04640350952377981</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5200,7 +5209,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.04260659967977953</v>
+        <v>0.04608638402806298</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -5208,7 +5217,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>0.04163134685698244</v>
+        <v>0.04310934664435062</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -5216,7 +5225,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.04116636314579813</v>
+        <v>0.04244312416958218</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -5224,7 +5233,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.04116636314579813</v>
+        <v>0.04135684150770169</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -5232,7 +5241,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>0.04116636314579813</v>
+        <v>0.04065916188878682</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -5240,7 +5249,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.04045623981086455</v>
+        <v>0.04038860518752108</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -5248,7 +5257,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.03681015379436126</v>
+        <v>0.03916923148254514</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -5256,7 +5265,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.03643090748896172</v>
+        <v>0.03916923148254514</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -5264,7 +5273,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.03610202467433443</v>
+        <v>0.03916923148254514</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -5272,7 +5281,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.03572333283982609</v>
+        <v>0.03862041904369495</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -5280,7 +5289,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.03547491387580548</v>
+        <v>0.03681015379436126</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -5288,7 +5297,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.03435868067510572</v>
+        <v>0.03517045798770568</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5296,7 +5305,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.03361972690637471</v>
+        <v>0.03513597015878411</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -5304,7 +5313,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.03226505118078182</v>
+        <v>0.03443995960569035</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -5312,7 +5321,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>0.03226505118078182</v>
+        <v>0.03443995960569035</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -5320,7 +5329,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.0313312306122151</v>
+        <v>0.03443755200723442</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -5328,7 +5337,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.03101410511649827</v>
+        <v>0.03395472830590762</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -5336,7 +5345,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.0258903518099145</v>
+        <v>0.03372997735809835</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -5344,7 +5353,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.02559900533308856</v>
+        <v>0.02876597725006036</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -5352,7 +5361,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.02531632627595637</v>
+        <v>0.01919065269950115</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -5360,7 +5369,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.01759089310723438</v>
+        <v>0.01661092784133178</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -5368,7 +5377,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>0.006466662169259729</v>
+        <v>0.005803296088993326</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -5376,7 +5385,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>2.109423746787797e-15</v>
+        <v>0.005268108445104724</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -5384,6 +5393,30 @@
         <v>454</v>
       </c>
       <c r="B456">
+        <v>0.004919821318118967</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B457">
+        <v>0.002206651280191929</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B458">
+        <v>2.109423746787797e-15</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B459">
         <v>2.109423746787797e-15</v>
       </c>
     </row>
